--- a/Conception/Burnout.xlsx
+++ b/Conception/Burnout.xlsx
@@ -2431,16 +2431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>567300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103236</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2467,16 +2467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450339</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10705</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11031</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
